--- a/admin/custom/reports/exports/Full Sales By Items (Orders).xlsx
+++ b/admin/custom/reports/exports/Full Sales By Items (Orders).xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>Sales By Items (Categories)</t>
   </si>
@@ -44,58 +44,28 @@
     <t>Total</t>
   </si>
   <si>
-    <t>398.000</t>
-  </si>
-  <si>
-    <t>2013/08/21 00:00</t>
-  </si>
-  <si>
-    <t>DIM210813009 by  Dimas Nuh Putra</t>
-  </si>
-  <si>
-    <t>25.000</t>
-  </si>
-  <si>
-    <t>RICEGGGGGGG01</t>
-  </si>
-  <si>
-    <t>Rice Bran Cookies / Vanilla / One</t>
-  </si>
-  <si>
-    <t>2013/08/20 00:00</t>
-  </si>
-  <si>
-    <t>DIM200813002 by  Dimas Nuh Putra</t>
-  </si>
-  <si>
-    <t>75.000</t>
-  </si>
-  <si>
-    <t>Rice Bran Cookies / Vanilla / NO STOCK N</t>
-  </si>
-  <si>
-    <t>2013/07/23 00:00</t>
-  </si>
-  <si>
-    <t>DIM230713001 by  Dimas Nuh Putra</t>
-  </si>
-  <si>
-    <t>250.000</t>
-  </si>
-  <si>
-    <t>DIM230713002 by  Dimas Nuh Putra</t>
-  </si>
-  <si>
-    <t>48.000</t>
-  </si>
-  <si>
-    <t>OYSTER01</t>
-  </si>
-  <si>
-    <t>Oyster Mushroom Crisps (can) / Original / NO STOCK N</t>
-  </si>
-  <si>
-    <t>23.000</t>
+    <t>600.000</t>
+  </si>
+  <si>
+    <t>-400.000</t>
+  </si>
+  <si>
+    <t>200.000</t>
+  </si>
+  <si>
+    <t>2013/11/18 00:00</t>
+  </si>
+  <si>
+    <t>DIM181113001 by  Dimas Nuh Putra</t>
+  </si>
+  <si>
+    <t>LFSRI192CB1310</t>
+  </si>
+  <si>
+    <t>Amadou Contemporary Stool / Classic Black / One</t>
+  </si>
+  <si>
+    <t>300.000</t>
   </si>
 </sst>
 </file>
@@ -510,7 +480,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1"/>
   </sheetViews>
@@ -594,196 +564,61 @@
         <v>8</v>
       </c>
       <c r="C6" s="8">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="8" t="s"/>
+      <c r="F6" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="G6" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" customHeight="1" ht="22">
       <c r="A7" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="9" t="s"/>
+        <v>9</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="G7" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7" customHeight="1" ht="22">
       <c r="A8" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="10" t="s"/>
+        <v>9</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="G8" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" customHeight="1" ht="22">
-      <c r="A9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="9">
-        <v>3</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="9" t="s"/>
-      <c r="G9" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" customHeight="1" ht="22">
-      <c r="A10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="10">
-        <v>3</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="10" t="s"/>
-      <c r="G10" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" customHeight="1" ht="22">
-      <c r="A11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="9">
-        <v>10</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="9" t="s"/>
-      <c r="G11" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" customHeight="1" ht="22">
-      <c r="A12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="10">
-        <v>10</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="10" t="s"/>
-      <c r="G12" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" customHeight="1" ht="22">
-      <c r="A13" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="9">
-        <v>2</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="9" t="s"/>
-      <c r="G13" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" customHeight="1" ht="22">
-      <c r="A14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="10">
-        <v>1</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="10" t="s"/>
-      <c r="G14" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" customHeight="1" ht="22">
-      <c r="A15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="10">
-        <v>1</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="10" t="s"/>
-      <c r="G15" s="10" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
